--- a/argoslabs/data/exceladv3/tests/sample.xlsx
+++ b/argoslabs/data/exceladv3/tests/sample.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="3" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11385" windowWidth="21600" xWindow="1845" yWindow="3930"/>
+    <workbookView activeTab="4" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15840" windowWidth="29040" xWindow="-120" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Sheet" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -50,17 +51,19 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="0" name="표준" xfId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <colors>
@@ -445,7 +448,7 @@
   <sheetData>
     <row r="1">
       <c r="H1">
-        <f>VLOOKUP(70,b:c,2,False)</f>
+        <f>VLOOKUP(70,B:C,2,FALSE)</f>
         <v/>
       </c>
       <c r="I1" t="inlineStr">
@@ -1109,8 +1112,9 @@
           <t>B</t>
         </is>
       </c>
-      <c r="E4" t="n">
-        <v>1</v>
+      <c r="E4">
+        <f>SUM(a1:a2,10)</f>
+        <v/>
       </c>
       <c r="F4" t="n">
         <v>1</v>
@@ -13223,7 +13227,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="3" min="3" width="10.5703125"/>
+    <col customWidth="1" max="3" min="3" style="6" width="10.5703125"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -13277,6 +13281,10 @@
       </c>
       <c r="C4" s="3" t="n">
         <v>-69</v>
+      </c>
+      <c r="E4">
+        <f>SUM(A1:A2)</f>
+        <v/>
       </c>
     </row>
     <row r="5">
@@ -13296,49 +13304,60 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B1" s="4" t="n">
+      <c r="A1" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="C1" s="4">
-        <f>VLOOKUP("Foghorn Leghorn",a:b,2,False)</f>
+      <c r="C1" s="5">
+        <f>VLOOKUP("Foghorn Leghorn",A:B,2,FALSE)</f>
         <v/>
       </c>
     </row>
     <row r="2"/>
     <row r="3"/>
     <row r="4">
-      <c r="C4" s="4" t="n">
+      <c r="C4" s="5" t="n">
         <v>5</v>
+      </c>
+      <c r="E4">
+        <f>SUM(A1:A2)</f>
+        <v/>
       </c>
     </row>
     <row r="5"/>
     <row r="6">
-      <c r="B6" s="4" t="n">
+      <c r="B6" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="C6" s="4" t="n">
+      <c r="C6" s="5" t="n">
         <v>66</v>
       </c>
     </row>
     <row r="7"/>
     <row r="8">
-      <c r="C8" s="4" t="n">
+      <c r="C8" s="5" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="9"/>
+    <row r="10">
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>b'PXN1bSgxLDIp'</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A1:A9"/>
@@ -13351,4 +13370,669 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1">
+        <f>100+100</f>
+        <v/>
+      </c>
+      <c r="B1">
+        <f>100+100</f>
+        <v/>
+      </c>
+      <c r="C1">
+        <f>100+100</f>
+        <v/>
+      </c>
+      <c r="D1">
+        <f>100+100</f>
+        <v/>
+      </c>
+      <c r="E1">
+        <f>100+100</f>
+        <v/>
+      </c>
+      <c r="F1">
+        <f>100+100</f>
+        <v/>
+      </c>
+      <c r="G1">
+        <f>100+100</f>
+        <v/>
+      </c>
+      <c r="H1">
+        <f>100+100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <f>100+100</f>
+        <v/>
+      </c>
+      <c r="B2">
+        <f>100+100</f>
+        <v/>
+      </c>
+      <c r="C2">
+        <f>100+100</f>
+        <v/>
+      </c>
+      <c r="D2">
+        <f>100+100</f>
+        <v/>
+      </c>
+      <c r="E2">
+        <f>100+100</f>
+        <v/>
+      </c>
+      <c r="F2">
+        <f>100+100</f>
+        <v/>
+      </c>
+      <c r="G2">
+        <f>100+100</f>
+        <v/>
+      </c>
+      <c r="H2">
+        <f>100+100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <f>100+100</f>
+        <v/>
+      </c>
+      <c r="B3">
+        <f>100+100</f>
+        <v/>
+      </c>
+      <c r="C3">
+        <f>100+100</f>
+        <v/>
+      </c>
+      <c r="D3">
+        <f>100+100</f>
+        <v/>
+      </c>
+      <c r="E3">
+        <f>100+100</f>
+        <v/>
+      </c>
+      <c r="F3">
+        <f>100+100</f>
+        <v/>
+      </c>
+      <c r="G3">
+        <f>100+100</f>
+        <v/>
+      </c>
+      <c r="H3">
+        <f>100+100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <f>100+100</f>
+        <v/>
+      </c>
+      <c r="B4">
+        <f>100+100</f>
+        <v/>
+      </c>
+      <c r="C4">
+        <f>100+100</f>
+        <v/>
+      </c>
+      <c r="D4">
+        <f>100+100</f>
+        <v/>
+      </c>
+      <c r="E4">
+        <f>100+100</f>
+        <v/>
+      </c>
+      <c r="F4">
+        <f>100+100</f>
+        <v/>
+      </c>
+      <c r="G4">
+        <f>100+100</f>
+        <v/>
+      </c>
+      <c r="H4">
+        <f>100+100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <f>100+100</f>
+        <v/>
+      </c>
+      <c r="B5">
+        <f>100+100</f>
+        <v/>
+      </c>
+      <c r="C5">
+        <f>100+100</f>
+        <v/>
+      </c>
+      <c r="D5">
+        <f>100+100</f>
+        <v/>
+      </c>
+      <c r="E5">
+        <f>100+100</f>
+        <v/>
+      </c>
+      <c r="F5">
+        <f>100+100</f>
+        <v/>
+      </c>
+      <c r="G5">
+        <f>100+100</f>
+        <v/>
+      </c>
+      <c r="H5">
+        <f>100+100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <f>100+100</f>
+        <v/>
+      </c>
+      <c r="B6">
+        <f>100+100</f>
+        <v/>
+      </c>
+      <c r="C6">
+        <f>100+100</f>
+        <v/>
+      </c>
+      <c r="D6">
+        <f>100+100</f>
+        <v/>
+      </c>
+      <c r="E6">
+        <f>100+100</f>
+        <v/>
+      </c>
+      <c r="F6">
+        <f>100+100</f>
+        <v/>
+      </c>
+      <c r="G6">
+        <f>100+100</f>
+        <v/>
+      </c>
+      <c r="H6">
+        <f>100+100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <f>100+100</f>
+        <v/>
+      </c>
+      <c r="B7">
+        <f>100+100</f>
+        <v/>
+      </c>
+      <c r="C7">
+        <f>100+100</f>
+        <v/>
+      </c>
+      <c r="D7">
+        <f>100+100</f>
+        <v/>
+      </c>
+      <c r="E7">
+        <f>100+100</f>
+        <v/>
+      </c>
+      <c r="F7">
+        <f>100+100</f>
+        <v/>
+      </c>
+      <c r="G7">
+        <f>100+100</f>
+        <v/>
+      </c>
+      <c r="H7">
+        <f>100+100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <f>100+100</f>
+        <v/>
+      </c>
+      <c r="B8">
+        <f>100+100</f>
+        <v/>
+      </c>
+      <c r="C8">
+        <f>100+100</f>
+        <v/>
+      </c>
+      <c r="D8">
+        <f>100+100</f>
+        <v/>
+      </c>
+      <c r="E8">
+        <f>100+100</f>
+        <v/>
+      </c>
+      <c r="F8">
+        <f>100+100</f>
+        <v/>
+      </c>
+      <c r="G8">
+        <f>100+100</f>
+        <v/>
+      </c>
+      <c r="H8">
+        <f>100+100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <f>100+100</f>
+        <v/>
+      </c>
+      <c r="B9">
+        <f>100+100</f>
+        <v/>
+      </c>
+      <c r="C9">
+        <f>100+100</f>
+        <v/>
+      </c>
+      <c r="D9">
+        <f>100+100</f>
+        <v/>
+      </c>
+      <c r="E9">
+        <f>100+100</f>
+        <v/>
+      </c>
+      <c r="F9">
+        <f>100+100</f>
+        <v/>
+      </c>
+      <c r="G9">
+        <f>100+100</f>
+        <v/>
+      </c>
+      <c r="H9">
+        <f>100+100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <f>100+100</f>
+        <v/>
+      </c>
+      <c r="B10">
+        <f>100+100</f>
+        <v/>
+      </c>
+      <c r="C10">
+        <f>100+100</f>
+        <v/>
+      </c>
+      <c r="D10">
+        <f>100+100</f>
+        <v/>
+      </c>
+      <c r="E10">
+        <f>100+100</f>
+        <v/>
+      </c>
+      <c r="F10">
+        <f>sum(1,2)</f>
+        <v/>
+      </c>
+      <c r="G10">
+        <f>100+100</f>
+        <v/>
+      </c>
+      <c r="H10">
+        <f>100+100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <f>100+100</f>
+        <v/>
+      </c>
+      <c r="B11">
+        <f>100+100</f>
+        <v/>
+      </c>
+      <c r="C11">
+        <f>100+100</f>
+        <v/>
+      </c>
+      <c r="D11">
+        <f>100+100</f>
+        <v/>
+      </c>
+      <c r="E11">
+        <f>100+100</f>
+        <v/>
+      </c>
+      <c r="F11">
+        <f>100+100</f>
+        <v/>
+      </c>
+      <c r="G11">
+        <f>100+100</f>
+        <v/>
+      </c>
+      <c r="H11">
+        <f>100+100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <f>100+100</f>
+        <v/>
+      </c>
+      <c r="B12">
+        <f>100+100</f>
+        <v/>
+      </c>
+      <c r="C12">
+        <f>100+100</f>
+        <v/>
+      </c>
+      <c r="D12">
+        <f>100+100</f>
+        <v/>
+      </c>
+      <c r="E12">
+        <f>100+100</f>
+        <v/>
+      </c>
+      <c r="F12">
+        <f>100+100</f>
+        <v/>
+      </c>
+      <c r="G12">
+        <f>100+100</f>
+        <v/>
+      </c>
+      <c r="H12">
+        <f>100+100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <f>100+100</f>
+        <v/>
+      </c>
+      <c r="B13">
+        <f>100+100</f>
+        <v/>
+      </c>
+      <c r="C13">
+        <f>100+100</f>
+        <v/>
+      </c>
+      <c r="D13">
+        <f>100+100</f>
+        <v/>
+      </c>
+      <c r="E13">
+        <f>100+100</f>
+        <v/>
+      </c>
+      <c r="F13">
+        <f>100+100</f>
+        <v/>
+      </c>
+      <c r="G13">
+        <f>100+100</f>
+        <v/>
+      </c>
+      <c r="H13">
+        <f>100+100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <f>100+100</f>
+        <v/>
+      </c>
+      <c r="B14">
+        <f>100+100</f>
+        <v/>
+      </c>
+      <c r="C14">
+        <f>100+100</f>
+        <v/>
+      </c>
+      <c r="D14">
+        <f>100+100</f>
+        <v/>
+      </c>
+      <c r="E14">
+        <f>100+100</f>
+        <v/>
+      </c>
+      <c r="F14">
+        <f>100+100</f>
+        <v/>
+      </c>
+      <c r="G14">
+        <f>100+100</f>
+        <v/>
+      </c>
+      <c r="H14">
+        <f>100+100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <f>100+100</f>
+        <v/>
+      </c>
+      <c r="B15">
+        <f>100+100</f>
+        <v/>
+      </c>
+      <c r="C15">
+        <f>100+100</f>
+        <v/>
+      </c>
+      <c r="D15">
+        <f>100+100</f>
+        <v/>
+      </c>
+      <c r="E15">
+        <f>100+100</f>
+        <v/>
+      </c>
+      <c r="F15">
+        <f>100+100</f>
+        <v/>
+      </c>
+      <c r="G15">
+        <f>100+100</f>
+        <v/>
+      </c>
+      <c r="H15">
+        <f>100+100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <f>100+100</f>
+        <v/>
+      </c>
+      <c r="B16">
+        <f>100+100</f>
+        <v/>
+      </c>
+      <c r="C16">
+        <f>100+100</f>
+        <v/>
+      </c>
+      <c r="D16">
+        <f>100+100</f>
+        <v/>
+      </c>
+      <c r="E16">
+        <f>100+100</f>
+        <v/>
+      </c>
+      <c r="F16">
+        <f>100+100</f>
+        <v/>
+      </c>
+      <c r="G16">
+        <f>100+100</f>
+        <v/>
+      </c>
+      <c r="H16">
+        <f>100+100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <f>100+100</f>
+        <v/>
+      </c>
+      <c r="B17">
+        <f>100+100</f>
+        <v/>
+      </c>
+      <c r="C17">
+        <f>100+100</f>
+        <v/>
+      </c>
+      <c r="D17">
+        <f>100+100</f>
+        <v/>
+      </c>
+      <c r="E17">
+        <f>100+100</f>
+        <v/>
+      </c>
+      <c r="F17">
+        <f>100+100</f>
+        <v/>
+      </c>
+      <c r="G17">
+        <f>100+100</f>
+        <v/>
+      </c>
+      <c r="H17">
+        <f>100+100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <f>100+100</f>
+        <v/>
+      </c>
+      <c r="B18">
+        <f>100+100</f>
+        <v/>
+      </c>
+      <c r="C18">
+        <f>100+100</f>
+        <v/>
+      </c>
+      <c r="D18">
+        <f>100+100</f>
+        <v/>
+      </c>
+      <c r="E18">
+        <f>100+100</f>
+        <v/>
+      </c>
+      <c r="F18">
+        <f>100+100</f>
+        <v/>
+      </c>
+      <c r="G18">
+        <f>100+100</f>
+        <v/>
+      </c>
+      <c r="H18">
+        <f>100+100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <f>100+100</f>
+        <v/>
+      </c>
+      <c r="B19">
+        <f>100+100</f>
+        <v/>
+      </c>
+      <c r="C19">
+        <f>100+100</f>
+        <v/>
+      </c>
+      <c r="D19">
+        <f>100+100</f>
+        <v/>
+      </c>
+      <c r="E19">
+        <f>100+100</f>
+        <v/>
+      </c>
+      <c r="F19">
+        <f>100+100</f>
+        <v/>
+      </c>
+      <c r="G19">
+        <f>100+100</f>
+        <v/>
+      </c>
+      <c r="H19">
+        <f>100+100</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>